--- a/Timeless-Answers.xlsx
+++ b/Timeless-Answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairmutebi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtran/ExperimentInCognitiveScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D01E1B-59B7-8D45-A671-6D11F305175A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB18E00-F826-6843-8D74-44236FF9660B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7600" yWindow="860" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="122">
   <si>
     <t>User Name</t>
   </si>
@@ -209,13 +209,190 @@
   </si>
   <si>
     <t>Guest10</t>
+  </si>
+  <si>
+    <t>0:8:0</t>
+  </si>
+  <si>
+    <t>0:7:14</t>
+  </si>
+  <si>
+    <t>0:5:57</t>
+  </si>
+  <si>
+    <t>0:3:3</t>
+  </si>
+  <si>
+    <t>0:6:43</t>
+  </si>
+  <si>
+    <t>0:5:33</t>
+  </si>
+  <si>
+    <t>0:7:2</t>
+  </si>
+  <si>
+    <t>0:5:54</t>
+  </si>
+  <si>
+    <t>Taken Time (2)</t>
+  </si>
+  <si>
+    <t>Time 1</t>
+  </si>
+  <si>
+    <t>Time 2</t>
+  </si>
+  <si>
+    <t>Time 3</t>
+  </si>
+  <si>
+    <t>Time 4</t>
+  </si>
+  <si>
+    <t>Time 5</t>
+  </si>
+  <si>
+    <t>00:02:29</t>
+  </si>
+  <si>
+    <t>00:02:03</t>
+  </si>
+  <si>
+    <t>00:01:47</t>
+  </si>
+  <si>
+    <t>00:00:50</t>
+  </si>
+  <si>
+    <t>00:00:53</t>
+  </si>
+  <si>
+    <t>00:01:34</t>
+  </si>
+  <si>
+    <t>00:02:05</t>
+  </si>
+  <si>
+    <t>00:01:30</t>
+  </si>
+  <si>
+    <t>00:02:07</t>
+  </si>
+  <si>
+    <t>00:02:04</t>
+  </si>
+  <si>
+    <t>00:00:52</t>
+  </si>
+  <si>
+    <t>00:01:57</t>
+  </si>
+  <si>
+    <t>00:01:26</t>
+  </si>
+  <si>
+    <t>00:01:35</t>
+  </si>
+  <si>
+    <t>00:00:55</t>
+  </si>
+  <si>
+    <t>00:01:21</t>
+  </si>
+  <si>
+    <t>00:01:31</t>
+  </si>
+  <si>
+    <t>00:01:58</t>
+  </si>
+  <si>
+    <t>00:01:37</t>
+  </si>
+  <si>
+    <t>00:01:53</t>
+  </si>
+  <si>
+    <t>00:00:39</t>
+  </si>
+  <si>
+    <t>00:03:10</t>
+  </si>
+  <si>
+    <t>00:01:08</t>
+  </si>
+  <si>
+    <t>00:02:50</t>
+  </si>
+  <si>
+    <t>00:01:20</t>
+  </si>
+  <si>
+    <t>00:01:12</t>
+  </si>
+  <si>
+    <t>00:04:19</t>
+  </si>
+  <si>
+    <t>00:03:19</t>
+  </si>
+  <si>
+    <t>00:05:12</t>
+  </si>
+  <si>
+    <t>00:04:15</t>
+  </si>
+  <si>
+    <t>00:02:52</t>
+  </si>
+  <si>
+    <t>00:00:37</t>
+  </si>
+  <si>
+    <t>00:02:28</t>
+  </si>
+  <si>
+    <t>00:02:15</t>
+  </si>
+  <si>
+    <t>00:01:29</t>
+  </si>
+  <si>
+    <t>00:00:48</t>
+  </si>
+  <si>
+    <t>00:00:47</t>
+  </si>
+  <si>
+    <t>00:02:37</t>
+  </si>
+  <si>
+    <t>00:00:57</t>
+  </si>
+  <si>
+    <t>00:01:04</t>
+  </si>
+  <si>
+    <t>00:01:14</t>
+  </si>
+  <si>
+    <t>00:01:28</t>
+  </si>
+  <si>
+    <t>00:01:52</t>
+  </si>
+  <si>
+    <t>00:01:01</t>
+  </si>
+  <si>
+    <t>Score(%) (2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -234,8 +411,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +438,13 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -257,14 +452,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,27 +788,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="21" customWidth="1"/>
-    <col min="17" max="17" width="9.83203125" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" customWidth="1"/>
-    <col min="19" max="19" width="19.83203125" customWidth="1"/>
-    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="13" width="19.5" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="22" max="22" width="85.33203125" customWidth="1"/>
+    <col min="23" max="23" width="9.83203125" customWidth="1"/>
+    <col min="24" max="24" width="19.33203125" customWidth="1"/>
+    <col min="25" max="25" width="19.83203125" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" customWidth="1"/>
+    <col min="28" max="28" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,46 +839,67 @@
         <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -679,47 +924,68 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
       <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="3">
+        <v>33.3333333</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>45</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="X2" t="s">
         <v>12</v>
       </c>
-      <c r="S2" t="s">
+      <c r="Y2" t="s">
         <v>22</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Z2" t="s">
         <v>44</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AA2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
@@ -744,47 +1010,68 @@
       <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
-        <v>15</v>
+      <c r="I3" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="3">
+        <v>66.666666599999999</v>
+      </c>
+      <c r="Q3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
         <v>48</v>
       </c>
-      <c r="O3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="S3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="T3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" t="s">
         <v>47</v>
       </c>
-      <c r="R3" t="s">
+      <c r="W3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" t="s">
         <v>14</v>
       </c>
-      <c r="S3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="Y3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" t="s">
         <v>46</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AA3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>55</v>
       </c>
@@ -809,47 +1096,68 @@
       <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
+      <c r="M4" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="N4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" t="s">
         <v>42</v>
       </c>
-      <c r="O4" t="s">
+      <c r="S4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" t="s">
         <v>16</v>
       </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" t="s">
         <v>47</v>
       </c>
-      <c r="R4" t="s">
+      <c r="W4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="X4" t="s">
         <v>14</v>
       </c>
-      <c r="S4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="Y4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="s">
         <v>46</v>
       </c>
-      <c r="U4" t="s">
+      <c r="AA4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
@@ -874,47 +1182,68 @@
       <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
-        <v>15</v>
+      <c r="I5" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
+      <c r="M5" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="N5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
         <v>42</v>
       </c>
-      <c r="O5" t="s">
+      <c r="S5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T5" t="s">
         <v>14</v>
       </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="U5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" t="s">
         <v>47</v>
       </c>
-      <c r="R5" t="s">
+      <c r="W5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="X5" t="s">
         <v>14</v>
       </c>
-      <c r="S5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="Y5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="s">
         <v>46</v>
       </c>
-      <c r="U5" t="s">
+      <c r="AA5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -939,47 +1268,68 @@
       <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
-        <v>15</v>
+      <c r="I6" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
         <v>22</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" t="s">
         <v>14</v>
       </c>
-      <c r="M6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="3">
+        <v>33.3333333</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" t="s">
         <v>42</v>
       </c>
-      <c r="O6" t="s">
+      <c r="S6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T6" t="s">
         <v>13</v>
       </c>
-      <c r="P6" t="s">
+      <c r="U6" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="V6" t="s">
         <v>43</v>
       </c>
-      <c r="R6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="W6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="X6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="s">
         <v>22</v>
       </c>
-      <c r="T6" t="s">
+      <c r="Z6" t="s">
         <v>44</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AA6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
@@ -1004,47 +1354,68 @@
       <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
       <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="3">
+        <v>66.666666599999999</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s">
         <v>42</v>
       </c>
-      <c r="O7" t="s">
+      <c r="S7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T7" t="s">
         <v>13</v>
       </c>
-      <c r="P7" t="s">
+      <c r="U7" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="V7" t="s">
         <v>45</v>
       </c>
-      <c r="R7" t="s">
+      <c r="W7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X7" t="s">
         <v>12</v>
       </c>
-      <c r="S7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="Y7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z7" t="s">
         <v>46</v>
       </c>
-      <c r="U7" t="s">
+      <c r="AA7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
@@ -1069,47 +1440,68 @@
       <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
-        <v>15</v>
+      <c r="I8" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" t="s">
-        <v>23</v>
+      <c r="M8" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="N8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" t="s">
         <v>42</v>
       </c>
-      <c r="O8" t="s">
+      <c r="S8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T8" t="s">
         <v>12</v>
       </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="U8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" t="s">
         <v>47</v>
       </c>
-      <c r="R8" t="s">
+      <c r="W8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="X8" t="s">
         <v>13</v>
       </c>
-      <c r="S8" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="Y8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z8" t="s">
         <v>46</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AA8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -1134,47 +1526,68 @@
       <c r="H9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
-        <v>15</v>
+      <c r="I9" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
         <v>18</v>
       </c>
-      <c r="L9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" t="s">
-        <v>23</v>
+      <c r="M9" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="N9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" t="s">
         <v>42</v>
       </c>
-      <c r="O9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="S9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U9" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" t="s">
         <v>47</v>
       </c>
-      <c r="R9" t="s">
+      <c r="W9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
         <v>13</v>
       </c>
-      <c r="S9" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="Y9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z9" t="s">
         <v>46</v>
       </c>
-      <c r="U9" t="s">
+      <c r="AA9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
@@ -1199,47 +1612,68 @@
       <c r="H10" t="s">
         <v>10</v>
       </c>
-      <c r="I10" t="s">
-        <v>15</v>
+      <c r="I10" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
         <v>18</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" t="s">
         <v>16</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="3">
+        <v>66.666666599999999</v>
+      </c>
+      <c r="Q10" t="s">
         <v>22</v>
       </c>
-      <c r="N10" t="s">
+      <c r="R10" t="s">
         <v>48</v>
       </c>
-      <c r="O10" t="s">
+      <c r="S10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10" t="s">
         <v>13</v>
       </c>
-      <c r="P10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="U10" t="s">
+        <v>23</v>
+      </c>
+      <c r="V10" t="s">
         <v>47</v>
       </c>
-      <c r="R10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="W10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z10" t="s">
         <v>46</v>
       </c>
-      <c r="U10" t="s">
+      <c r="AA10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
@@ -1264,43 +1698,64 @@
       <c r="H11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
       <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
         <v>18</v>
       </c>
-      <c r="L11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="M11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="3">
+        <v>66.666666599999999</v>
+      </c>
+      <c r="Q11" t="s">
         <v>22</v>
       </c>
-      <c r="N11" t="s">
+      <c r="R11" t="s">
         <v>49</v>
       </c>
-      <c r="O11" t="s">
+      <c r="S11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T11" t="s">
         <v>12</v>
       </c>
-      <c r="P11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="U11" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" t="s">
         <v>47</v>
       </c>
-      <c r="R11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="W11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z11" t="s">
         <v>46</v>
       </c>
-      <c r="U11" t="s">
+      <c r="AA11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB11" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Timeless-Answers.xlsx
+++ b/Timeless-Answers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtran/ExperimentInCognitiveScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB18E00-F826-6843-8D74-44236FF9660B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38717CA0-2673-0248-96FA-9F9BDFA0F540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="860" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="860" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="126">
   <si>
     <t>User Name</t>
   </si>
@@ -55,9 +55,6 @@
     <t>196 J</t>
   </si>
   <si>
-    <t>How confident are you in your answers</t>
-  </si>
-  <si>
     <t>Not at all confident</t>
   </si>
   <si>
@@ -386,6 +383,21 @@
   </si>
   <si>
     <t>Score(%) (2)</t>
+  </si>
+  <si>
+    <t>How confident are you in your answers? 1</t>
+  </si>
+  <si>
+    <t>How confident are you in your answers? 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How confident are you in your answers? 3 </t>
+  </si>
+  <si>
+    <t>How confident are you in your answers? 4</t>
+  </si>
+  <si>
+    <t>How confident are you in your answers? 5</t>
   </si>
 </sst>
 </file>
@@ -790,27 +802,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
     <col min="12" max="13" width="19.5" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="14" max="14" width="36.6640625" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="16" max="16" width="16" style="5" customWidth="1"/>
+    <col min="17" max="17" width="27.5" customWidth="1"/>
+    <col min="20" max="20" width="33.33203125" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
     <col min="22" max="22" width="85.33203125" customWidth="1"/>
     <col min="23" max="23" width="9.83203125" customWidth="1"/>
-    <col min="24" max="24" width="19.33203125" customWidth="1"/>
+    <col min="24" max="24" width="33.6640625" customWidth="1"/>
     <col min="25" max="25" width="19.83203125" customWidth="1"/>
     <col min="26" max="26" width="12.6640625" customWidth="1"/>
-    <col min="28" max="28" width="31" customWidth="1"/>
+    <col min="28" max="28" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -836,81 +850,81 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AB1" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>28.5714285</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -919,84 +933,84 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P2" s="3">
         <v>33.3333333</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>28.5714285</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -1005,84 +1019,84 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P3" s="3">
         <v>66.666666599999999</v>
       </c>
       <c r="Q3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>14.285714199999999</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -1091,84 +1105,84 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P4" s="3">
         <v>100</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>28.5714285</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -1177,84 +1191,84 @@
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P5" s="3">
         <v>100</v>
       </c>
       <c r="Q5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>14.285714199999999</v>
       </c>
       <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -1263,84 +1277,84 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P6" s="3">
         <v>33.3333333</v>
       </c>
       <c r="Q6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="W6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB6" t="s">
         <v>13</v>
-      </c>
-      <c r="U6" t="s">
-        <v>22</v>
-      </c>
-      <c r="V6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="X6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>28.5714285</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -1349,84 +1363,84 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P7" s="3">
         <v>66.666666599999999</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="X7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z7" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="X7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>46</v>
-      </c>
       <c r="AA7" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>28.5714285</v>
       </c>
       <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -1435,84 +1449,84 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U8" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="X8" t="s">
         <v>12</v>
       </c>
-      <c r="U8" t="s">
-        <v>23</v>
-      </c>
-      <c r="V8" t="s">
-        <v>47</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB8" t="s">
         <v>13</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>28.5714285</v>
       </c>
       <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -1521,84 +1535,84 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB9" t="s">
         <v>13</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>28.5714285</v>
       </c>
       <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -1607,84 +1621,84 @@
         <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" t="s">
         <v>15</v>
       </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N10" t="s">
-        <v>16</v>
-      </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P10" s="3">
         <v>66.666666599999999</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>28.5714285</v>
       </c>
       <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -1693,70 +1707,70 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P11" s="3">
         <v>66.666666599999999</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB11" t="s">
         <v>15</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
